--- a/topic01/book-a/archives/stockPrices_one_column_solution.xlsx
+++ b/topic01/book-a/archives/stockPrices_one_column_solution.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17571"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bmullally\Documents\Analytics\analytics-2017\topic01\book-a\archives\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Documents\Analytics\analytics-2017\topic01\book-a\archives\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">2</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -224,7 +224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -248,7 +248,6 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -281,7 +280,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2259,7 +2257,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2601,8 +2605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D16" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="D18" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3397,7 +3401,7 @@
       <c r="G27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H27" s="23">
+      <c r="H27" s="22">
         <f>RSQ(E4:E178,D4:D178)</f>
         <v>0.11124608234409328</v>
       </c>
